--- a/config_11.9/box_exchange_server.xlsx
+++ b/config_11.9/box_exchange_server.xlsx
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="830">
   <si>
     <t>id|</t>
   </si>
@@ -6446,7 +6446,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
+      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9429,7 +9429,7 @@
         <v>1636416000</v>
       </c>
       <c r="D105" s="38">
-        <v>1636991999</v>
+        <v>1637596799</v>
       </c>
       <c r="E105" s="14">
         <v>91</v>
@@ -9452,7 +9452,7 @@
         <v>1636416000</v>
       </c>
       <c r="D106" s="38">
-        <v>1636991999</v>
+        <v>1637596799</v>
       </c>
       <c r="E106" s="14">
         <v>92</v>
@@ -9475,7 +9475,7 @@
         <v>1636416000</v>
       </c>
       <c r="D107" s="38">
-        <v>1636991999</v>
+        <v>1637596799</v>
       </c>
       <c r="E107" s="14">
         <v>93</v>
